--- a/Resources/Read_Write.xlsx
+++ b/Resources/Read_Write.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -160,7 +160,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +500,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -574,7 +573,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -642,16 +641,16 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="B5 B2"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -688,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -705,7 +704,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -722,7 +721,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
